--- a/AK_CORE/xls/Suite.xlsx
+++ b/AK_CORE/xls/Suite.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TSID</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>APISuite</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>n</t>
@@ -481,7 +478,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/AK_CORE/xls/Suite.xlsx
+++ b/AK_CORE/xls/Suite.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa443020\git\OpenSurceAutomation\AK_CORE\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z003scmj\git\OpenSurceAutomation\AK_CORE\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E777D-15AF-4390-805E-BB6D3B47CD6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="72" windowWidth="14352" windowHeight="4692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>TSID</t>
   </si>
@@ -57,12 +58,15 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,12 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,21 +477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -507,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -521,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -532,46 +535,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LUnrestricted </oddFooter>
+    <evenFooter xml:space="preserve">&amp;LUnrestricted </evenFooter>
+    <firstFooter xml:space="preserve">&amp;LUnrestricted </firstFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LUnrestricted </oddFooter>
+    <evenFooter xml:space="preserve">&amp;LUnrestricted </evenFooter>
+    <firstFooter xml:space="preserve">&amp;LUnrestricted </firstFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LUnrestricted </oddFooter>
+    <evenFooter xml:space="preserve">&amp;LUnrestricted </evenFooter>
+    <firstFooter xml:space="preserve">&amp;LUnrestricted </firstFooter>
+  </headerFooter>
 </worksheet>
 </file>